--- a/Bug-Requirement/Test wam lan 1.xlsx
+++ b/Bug-Requirement/Test wam lan 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhxuan\Downloads\testwammoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRACTISE\V3\Bug-Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>1.FULLFILL</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>….</t>
+  </si>
+  <si>
+    <t>because choose 10 items. Please choose more</t>
   </si>
 </sst>
 </file>
@@ -953,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Q55" sqref="Q55"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="R110" sqref="R110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,24 +1042,43 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q71" t="s">
+        <v>24</v>
+      </c>
+      <c r="R71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="Q84" t="s">
+        <v>24</v>
+      </c>
+      <c r="R84" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q108" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
